--- a/medicine/Enfance/Romance_ruritanienne/Romance_ruritanienne.xlsx
+++ b/medicine/Enfance/Romance_ruritanienne/Romance_ruritanienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une romance ruritanienne est un genre littéraire créé à la fin du XIXe siècle, qui tire son nom de la Ruritanie, un pays imaginaire créé par Anthony Hope dans son roman Le Prisonnier de Zenda. Il s'agit le plus souvent de romans d'amour et d'aventures ayant pour cadre de petites monarchies perdues dans les montagnes d'Europe centrale. Le genre était en vogue au tournant du XXe siècle avec de notables extensions jusqu'à nos jours, notamment dans la bande dessinée.
 </t>
@@ -511,9 +523,11 @@
           <t>Bases historiques et géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'action se situe invariablement dans des petits pays germaniques ou balkaniques évoquant les micro-États du Saint-Empire précédant la construction de l'unité allemande[1], voire le Liechtenstein ou le Luxembourg.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'action se situe invariablement dans des petits pays germaniques ou balkaniques évoquant les micro-États du Saint-Empire précédant la construction de l'unité allemande, voire le Liechtenstein ou le Luxembourg.
 La principauté du Liechtenstein en reste l'archétype : État minuscule, germanique, montagneux, dirigé sur un mode aristocratique et au nom compliqué voire imprononçable.
 L'histoire de Louis II de Bavière est une source d'inspiration pour les auteurs : roi romantique, refusant l'évolution du monde qui l'entoure avec une opposition démocratique qui parvient à déposer le roi. Il faut aussi sans doute citer Élisabeth de Wittelsbach dite Sissi, impératrice d'un État bien réel, mais à la vie romantique qui influença de nombreux auteurs.
 Le terme péjoratif de « Royaume d'opérette » définit assez précisément ses caractéristiques politiques. Il vient probablement de La Grande-duchesse de Gérolstein, l'opéra-bouffe d'Offenbach.
@@ -545,7 +559,9 @@
           <t>Caractères récurrents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les auteurs insistent souvent sur la rusticité des habitants, leurs mode de vie pittoresque et archaïque. Le plus souvent, une partie de la population reste fidèle au régime politique traditionnel tandis qu'une opposition démocratique représente souvent une menace à la survivance d'un monde ancien, monarchique et idéalisé, voire anachronique (Prince Othon, Le Roi des Zôtres, QRN sur Bretzelburg).
 La petite taille de l'État est un atout évident pour tous les aventuriers cherchant à devenir premier ministre (voire roi pour les plus ambitieux) (Prince Othon, Le Roi des Zôtres, QRN sur Bretzelburg).
@@ -580,13 +596,15 @@
           <t>Histoire du genre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande-duchesse de Gérolstein, l'opéra-bouffe d'Offenbach, date de 1867 et contient déjà quelques-uns des standards du genre, à commencer par un petit État belliqueux, en même temps qu'un peu ridicule. Pourtant, l'action, censée se dérouler vers 1720, précède largement l'époque contemporaine de l'auteur, alors qu'un des éléments importants de la romance ruritanienne est le goût des Occidentaux pour cette catégorie de petits États anachroniques — sentiment très répandu à la période romantique.
 La première œuvre créant véritablement le genre est le roman d'aventures Prince Othon de Robert Louis Stevenson, publié en 1885. Le prince règne sur l'État du Grunewald, en conflit avec son petit voisin, le duché de Gerolstein, reprenant comme un hommage le nom de l'opéra d'Offenbach. Prince Othon est pourtant considérée comme une œuvre mineure de Stevenson.
 L'écrivain britannique Anthony Hope installe le genre avec Le Prisonnier de Zenda, autre roman d'aventures publié en 1894, qui obtient rapidement un grand succès et donne lieu à quantité d'imitations, dont les plus connues sont celles de l'écrivain américain George Barr McCutcheon prenant place dans la principauté de Graustark. McCutcheon introduit un élément supplémentaire dans son roman : le héros est un Américain pure souche qui triomphe des obstacles pour épouser la belle princesse. L'expression « romance graustarkienne » est parfois utilisée comme synonyme de « romance ruritanienne ».
-Le succès du Prisonnier de Zenda conduit à l'écriture de nombreux autres livres sur le même thème. En 1906, on estime que plus de cent ont déjà été écrites[2].
-Après la Seconde Guerre mondiale, les romances ruritaniennes s'inspirent de la Guerre froide et les États sont sous l'influence de grandes puissances[2].
+Le succès du Prisonnier de Zenda conduit à l'écriture de nombreux autres livres sur le même thème. En 1906, on estime que plus de cent ont déjà été écrites.
+Après la Seconde Guerre mondiale, les romances ruritaniennes s'inspirent de la Guerre froide et les États sont sous l'influence de grandes puissances.
 </t>
         </is>
       </c>
@@ -617,10 +635,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Théâtre
-1867 : La Grande-duchesse de Gérolstein d'Offenbach (grand-duché de Gerolstein)
-Romans
-1885 : Prince Othon de Robert Louis Stevenson (principauté de Grunewald et duché de Gerolstein)
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1867 : La Grande-duchesse de Gérolstein d'Offenbach (grand-duché de Gerolstein)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1885 : Prince Othon de Robert Louis Stevenson (principauté de Grunewald et duché de Gerolstein)
 1894 : Le Prisonnier de Zenda d'Anthony Hope (royaume de Ruritanie)
 1901 : Graustark: The Story of a Love Behind a Throne de George Barr McCutcheon (principauté de Graustark)
 1915 : The Lost Prince de Frances Hodgson Burnett (Samavia)
@@ -631,9 +688,43 @@
 1993 : Sept cavaliers quittèrent la ville au crépuscule par la porte de l'Ouest qui n'était plus gardée de Jean Raspail
 1994 : The Tin Princess de Philip Pullman (Razkavie)
 2018 : Le regard et la couronne de Yann Fastier
-2019 : Le Continent de la douceur d'Aurélien Bellanger (royaume du Karst)[3]
-Cinéma
-1913 : Le Prisonnier de Zenda de Hugh Ford et Edwin S. Porter
+2019 : Le Continent de la douceur d'Aurélien Bellanger (royaume du Karst)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1913 : Le Prisonnier de Zenda de Hugh Ford et Edwin S. Porter
 1922 : Le Prisonnier de Zenda de Rex Ingram
 1933 : La Soupe au canard des Marx Brothers (Freedonia, en guerre avec son voisin Sylvania)
 1937 : Le Prisonnier de Zenda de John Cromwell
@@ -643,9 +734,43 @@
 1964 : La Souris sur la Lune de Richard Lester
 1979 : Le Prisonnier de Zenda de Richard Quine
 1979 : Le Château de Cagliostro d' Hayao Miyazaki
-2014 : The Grand Budapest Hotel de Wes Anderson
-Bande dessinée
-1937 : Mickey et le roi de Medioka de Floyd Gottfredson (Medioka)
+2014 : The Grand Budapest Hotel de Wes Anderson</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1937 : Mickey et le roi de Medioka de Floyd Gottfredson (Medioka)
 1938 : Le Sceptre d'Ottokar d'Hergé (Syldavie et son voisin la Bordurie)
 1956 : Mickey et le mystère de Tap Yocca VI de Romano Scarpa (Zanzanie)
 1957 : Chlorophylle et les croquillards de Raymond Macherot (Coquefredouille)
@@ -654,12 +779,80 @@
 1976 : Barelli et Le Seigneur de Gonobutz de Bob de Moor (Rocca-Negro)
 1977 : Le Roi des Zôtres de Greg (royaume du Zôtrland)
 2010 : Son Altesse Honesty de Christian Denayer et Jean Van Hamme
-2013 : Acca 13 - Brigade de contre espionnage de Natsume Ono (Royaume de Dowa)
-Dessins animés
-1983 : Inspecteur Gadget épisode 45 - Le Prince des gitans (Romanovie)
-1994 : Mort &amp; Phil épisode 1 - Le Sulfate atomique (République de Tyranie)
-Jeux vidéo
-Univers de The Legend of Zelda[1]</t>
+2013 : Acca 13 - Brigade de contre espionnage de Natsume Ono (Royaume de Dowa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dessins animés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1983 : Inspecteur Gadget épisode 45 - Le Prince des gitans (Romanovie)
+1994 : Mort &amp; Phil épisode 1 - Le Sulfate atomique (République de Tyranie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romance_ruritanienne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Quelques exemples</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Univers de The Legend of Zelda</t>
         </is>
       </c>
     </row>
